--- a/docs/model-doc/tables-raw/treatchars.xlsx
+++ b/docs/model-doc/tables-raw/treatchars.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="treatchar-1-1L" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="73">
   <si>
     <t>ARCHER 1050</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Erlotinib, PO (150mg; D1; Cycle length: 1 day(s); UDP)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Gemcitabine + Carboplatin</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>Osimertinib, PO (80mg; D1; Cycle length: 1 day(s); UDP)</t>
   </si>
   <si>
-    <t>Han 2017</t>
-  </si>
-  <si>
     <t>Carboplatin + Pemetrexed</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
     <t>Cisplatin, IV (80mg/m2 over 90 min; D1; Cycle length: 3 week(s); Max no. cycles: 3 to 6 cycle(s))</t>
   </si>
   <si>
-    <t>Yang 2014</t>
-  </si>
-  <si>
     <t>Cisplatin + Pemetrexed followed by Gefitinib maintenance</t>
   </si>
   <si>
@@ -242,16 +233,38 @@
   </si>
   <si>
     <t>Placebo, PO (250mg; D1; Cycle length: 1 day(s); UDP)</t>
+  </si>
+  <si>
+    <t>Yang2014</t>
+  </si>
+  <si>
+    <t>Han2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,13 +287,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -612,27 +641,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -680,10 +709,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -691,21 +720,21 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -714,83 +743,83 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -799,49 +828,49 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -850,15 +879,15 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -867,32 +896,32 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -901,15 +930,15 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -918,117 +947,117 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
         <v>42</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -1037,15 +1066,15 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -1054,32 +1083,32 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
         <v>46</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>47</v>
       </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" t="s">
-        <v>49</v>
-      </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1088,32 +1117,32 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
@@ -1122,41 +1151,41 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
         <v>52</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>53</v>
       </c>
-      <c r="C31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" t="s">
-        <v>55</v>
-      </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -1164,7 +1193,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -1173,14 +1202,15 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1193,38 +1223,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1235,50 +1265,50 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -1286,40 +1316,41 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
         <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
